--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_9.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317362.5407815019</v>
+        <v>320074.8015362156</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2995243.613506387</v>
+        <v>2995243.613506389</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4812058.022867889</v>
+        <v>4812058.02286789</v>
       </c>
     </row>
     <row r="11">
@@ -1130,73 +1130,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>22.56635248423083</v>
       </c>
-      <c r="E8" t="n">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>25.62029119463083</v>
@@ -1209,76 +1209,76 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="C9" t="n">
         <v>22.56635248423083</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="D9" t="n">
+      <c r="Y9" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>10.61706312961831</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,31 +1412,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="S11" t="n">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="T11" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="U11" t="n">
-        <v>12.57565326968602</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21.81976115797297</v>
+      </c>
+      <c r="G12" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I12" t="n">
-        <v>21.81976115797297</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1853,52 +1853,52 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>12.35200489467393</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H17" t="n">
+      <c r="S17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I17" t="n">
+      <c r="T17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="S18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>22.44875936050941</v>
-      </c>
-      <c r="T19" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="U19" t="n">
         <v>27.59002526031614</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>3.55522121023865</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,58 +2330,58 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,28 +2397,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>92.72704515543269</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>14.90158090740716</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>55.28127355395444</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>46.79470495664732</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3035,67 +3035,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>182.6878519172211</v>
+      </c>
+      <c r="W32" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="F32" t="n">
+      <c r="X32" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3117,10 +3117,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>91.01404827120737</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>16.72358150276034</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3184,55 +3184,55 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3266,73 +3266,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="D35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>189.7190331592112</v>
+      </c>
+      <c r="X35" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="E35" t="n">
+      <c r="Y35" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>189.7190331592112</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>39.43764985988177</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>18.03586205537343</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3463,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,19 +3512,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>32.81873397607129</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>33.26513104358009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3639,7 +3639,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
-        <v>148.5012945739651</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3661,58 +3661,58 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="C41" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>177.9933921796109</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.11497345300587</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>81.25479045854401</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>213.4242636173429</v>
+        <v>186.4730396974633</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C8" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D8" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E8" t="n">
         <v>2.049623295570466</v>
@@ -4805,10 +4805,10 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
         <v>77.1170764958388</v>
@@ -4817,7 +4817,7 @@
         <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
@@ -4835,19 +4835,19 @@
         <v>102.4811647785233</v>
       </c>
       <c r="U8" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V8" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W8" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X8" t="n">
-        <v>76.6020827637447</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53.80778732512771</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C9" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D9" t="n">
         <v>2.049623295570466</v>
@@ -4884,10 +4884,10 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
         <v>77.1170764958388</v>
@@ -4920,13 +4920,13 @@
         <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
         <v>76.6020827637447</v>
       </c>
       <c r="Y9" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C11" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D11" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E11" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F11" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G11" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H11" t="n">
-        <v>2.049623295570466</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J11" t="n">
         <v>2.049623295570466</v>
@@ -5045,7 +5045,7 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
         <v>77.1170764958388</v>
@@ -5060,31 +5060,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>66.51046739551762</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
-        <v>40.631385380739</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T11" t="n">
-        <v>14.75230336596039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U11" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V11" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W11" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X11" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C12" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D12" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E12" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F12" t="n">
-        <v>24.84391873418747</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G12" t="n">
-        <v>24.84391873418747</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H12" t="n">
-        <v>24.84391873418747</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I12" t="n">
         <v>2.80375594835618</v>
@@ -5121,19 +5121,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
+        <v>27.41371157825499</v>
+      </c>
+      <c r="M12" t="n">
+        <v>27.41371157825499</v>
+      </c>
+      <c r="N12" t="n">
         <v>51.75298821315428</v>
       </c>
-      <c r="M12" t="n">
-        <v>77.1170764958388</v>
-      </c>
-      <c r="N12" t="n">
-        <v>77.1170764958388</v>
-      </c>
       <c r="O12" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P12" t="n">
         <v>77.1170764958388</v>
@@ -5154,16 +5154,16 @@
         <v>102.4811647785233</v>
       </c>
       <c r="V12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y12" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F14" t="n">
-        <v>2.049623295570466</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G14" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H14" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I14" t="n">
         <v>2.049623295570466</v>
@@ -5279,16 +5279,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>77.1170764958388</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N14" t="n">
-        <v>77.1170764958388</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O14" t="n">
         <v>77.1170764958388</v>
@@ -5297,31 +5297,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>66.51046739551762</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>40.631385380739</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>14.75230336596039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="M15" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="L15" t="n">
-        <v>51.75298821315428</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
+        <v>52.77779986093951</v>
+      </c>
+      <c r="O15" t="n">
         <v>77.1170764958388</v>
-      </c>
-      <c r="N15" t="n">
-        <v>77.1170764958388</v>
-      </c>
-      <c r="O15" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="P15" t="n">
         <v>102.4811647785233</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>97.8833284203818</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>70.01461603622408</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
-        <v>42.14590365206637</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M17" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N17" t="n">
-        <v>84.14957704396423</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O17" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S17" t="n">
-        <v>110.3601010412646</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T17" t="n">
-        <v>110.3601010412646</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="U17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G18" t="n">
         <v>2.207202020825291</v>
@@ -5595,19 +5595,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M18" t="n">
         <v>55.73185102583861</v>
       </c>
       <c r="N18" t="n">
+        <v>55.73185102583861</v>
+      </c>
+      <c r="O18" t="n">
         <v>83.04597603355158</v>
-      </c>
-      <c r="O18" t="n">
-        <v>110.3601010412646</v>
       </c>
       <c r="P18" t="n">
         <v>110.3601010412646</v>
@@ -5619,25 +5619,25 @@
         <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>54.62267627294912</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T18" t="n">
-        <v>26.7539638887914</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U18" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V18" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W18" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X18" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="19">
@@ -5698,25 +5698,25 @@
         <v>108.4888536788635</v>
       </c>
       <c r="S19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="T19" t="n">
         <v>85.81333917329844</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>57.94462678914073</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
+        <v>57.94462678914073</v>
+      </c>
+      <c r="W19" t="n">
+        <v>57.94462678914073</v>
+      </c>
+      <c r="X19" t="n">
         <v>30.07591440498301</v>
       </c>
-      <c r="V19" t="n">
+      <c r="Y19" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="W19" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C20" t="n">
-        <v>233.7108255783361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>432.4774131586771</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V21" t="n">
-        <v>197.3253049269343</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>193.7341723913397</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5941,7 +5941,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5966,16 +5966,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>942.6594228129348</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>731.528039392485</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>761.8705608694022</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C24" t="n">
-        <v>761.8705608694022</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6075,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>761.8705608694022</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>291.8877337080889</v>
+        <v>284.6244618379714</v>
       </c>
       <c r="C27" t="n">
-        <v>291.8877337080889</v>
+        <v>284.6244618379714</v>
       </c>
       <c r="D27" t="n">
-        <v>291.8877337080889</v>
+        <v>284.6244618379714</v>
       </c>
       <c r="E27" t="n">
-        <v>132.6502787026334</v>
+        <v>125.3870068325159</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>125.3870068325159</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>125.3870068325159</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>908.2174852541166</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>734.8001407047855</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>734.8001407047855</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>734.8001407047855</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>499.6480324730428</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>499.6480324730428</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X27" t="n">
-        <v>499.6480324730428</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y27" t="n">
-        <v>291.8877337080889</v>
+        <v>284.6244618379714</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.38115216564972</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C30" t="n">
-        <v>49.38115216564972</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D30" t="n">
-        <v>49.38115216564972</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E30" t="n">
-        <v>49.38115216564972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>642.2029027701026</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>642.2029027701026</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>642.2029027701026</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>642.2029027701026</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>642.2029027701026</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.38115216564972</v>
+        <v>642.2029027701026</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6652,19 +6652,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>452.3709090732851</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="C32" t="n">
-        <v>452.3709090732851</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3709090732851</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="E32" t="n">
-        <v>234.8012144439637</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="F32" t="n">
-        <v>17.23151981464226</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="G32" t="n">
-        <v>17.23151981464226</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="H32" t="n">
-        <v>17.23151981464226</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="I32" t="n">
-        <v>17.23151981464226</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J32" t="n">
         <v>17.23151981464226</v>
@@ -6707,7 +6707,7 @@
         <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
-        <v>513.5624350164212</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
         <v>622.7209852974139</v>
@@ -6734,16 +6734,16 @@
         <v>861.5759907321129</v>
       </c>
       <c r="V32" t="n">
-        <v>644.0062961027915</v>
+        <v>677.0428069773442</v>
       </c>
       <c r="W32" t="n">
-        <v>644.0062961027915</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="X32" t="n">
-        <v>644.0062961027915</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="Y32" t="n">
-        <v>452.3709090732851</v>
+        <v>241.9034177187013</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>268.4023569122264</v>
+        <v>323.7576654459985</v>
       </c>
       <c r="C33" t="n">
-        <v>268.4023569122264</v>
+        <v>323.7576654459985</v>
       </c>
       <c r="D33" t="n">
-        <v>268.4023569122264</v>
+        <v>323.7576654459985</v>
       </c>
       <c r="E33" t="n">
-        <v>109.1649019067709</v>
+        <v>164.520210440543</v>
       </c>
       <c r="F33" t="n">
-        <v>109.1649019067709</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="G33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="H33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="I33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J33" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>17.23151981464226</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>17.23151981464226</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="M33" t="n">
-        <v>230.4715775208402</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N33" t="n">
-        <v>443.7116352270382</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O33" t="n">
-        <v>656.9516929332361</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P33" t="n">
-        <v>839.595170546587</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>861.5759907321129</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S33" t="n">
-        <v>688.1586461827818</v>
+        <v>743.5139547165538</v>
       </c>
       <c r="T33" t="n">
-        <v>485.9720515415478</v>
+        <v>541.3273600753199</v>
       </c>
       <c r="U33" t="n">
-        <v>268.4023569122264</v>
+        <v>541.3273600753199</v>
       </c>
       <c r="V33" t="n">
-        <v>268.4023569122264</v>
+        <v>323.7576654459985</v>
       </c>
       <c r="W33" t="n">
-        <v>268.4023569122264</v>
+        <v>323.7576654459985</v>
       </c>
       <c r="X33" t="n">
-        <v>268.4023569122264</v>
+        <v>323.7576654459985</v>
       </c>
       <c r="Y33" t="n">
-        <v>268.4023569122264</v>
+        <v>323.7576654459985</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L34" t="n">
-        <v>754.3578252495552</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M34" t="n">
-        <v>793.5458634417773</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N34" t="n">
-        <v>837.2367140972136</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O34" t="n">
-        <v>861.5759907321129</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P34" t="n">
-        <v>861.5759907321129</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q34" t="n">
-        <v>861.5759907321129</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R34" t="n">
-        <v>861.5759907321129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="S34" t="n">
-        <v>861.5759907321129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="T34" t="n">
-        <v>861.5759907321129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U34" t="n">
-        <v>861.5759907321129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V34" t="n">
-        <v>861.5759907321129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W34" t="n">
-        <v>861.5759907321129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X34" t="n">
-        <v>861.5759907321129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y34" t="n">
-        <v>861.5759907321129</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>669.9406037026066</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C35" t="n">
-        <v>452.3709090732851</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D35" t="n">
         <v>234.8012144439637</v>
       </c>
       <c r="E35" t="n">
-        <v>17.23151981464226</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F35" t="n">
-        <v>17.23151981464226</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="G35" t="n">
         <v>17.23151981464226</v>
@@ -6944,10 +6944,10 @@
         <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>513.5624350164212</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N35" t="n">
-        <v>719.4169572236606</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
         <v>771.915935440062</v>
@@ -6971,16 +6971,16 @@
         <v>861.5759907321129</v>
       </c>
       <c r="V35" t="n">
-        <v>669.9406037026066</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W35" t="n">
         <v>669.9406037026066</v>
       </c>
       <c r="X35" t="n">
-        <v>669.9406037026066</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y35" t="n">
-        <v>669.9406037026066</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35.44956229481744</v>
+        <v>613.9796820076824</v>
       </c>
       <c r="C36" t="n">
-        <v>35.44956229481744</v>
+        <v>439.5266527265554</v>
       </c>
       <c r="D36" t="n">
-        <v>35.44956229481744</v>
+        <v>290.5922430653042</v>
       </c>
       <c r="E36" t="n">
-        <v>35.44956229481744</v>
+        <v>131.3547880598487</v>
       </c>
       <c r="F36" t="n">
-        <v>35.44956229481744</v>
+        <v>131.3547880598487</v>
       </c>
       <c r="G36" t="n">
-        <v>35.44956229481744</v>
+        <v>131.3547880598487</v>
       </c>
       <c r="H36" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="I36" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J36" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>17.23151981464226</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>230.4715775208402</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M36" t="n">
-        <v>435.095875319717</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N36" t="n">
-        <v>648.335933025915</v>
+        <v>578.9413745125856</v>
       </c>
       <c r="O36" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P36" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q36" t="n">
         <v>861.5759907321129</v>
@@ -7041,25 +7041,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>688.1586461827818</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T36" t="n">
-        <v>688.1586461827818</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U36" t="n">
-        <v>470.5889515534603</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V36" t="n">
-        <v>253.0192569241389</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W36" t="n">
-        <v>35.44956229481744</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X36" t="n">
-        <v>35.44956229481744</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y36" t="n">
-        <v>35.44956229481744</v>
+        <v>653.815691967159</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
       <c r="C37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
       <c r="D37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
       <c r="E37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
       <c r="F37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L37" t="n">
-        <v>754.3578252495552</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M37" t="n">
-        <v>793.5458634417773</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N37" t="n">
-        <v>837.2367140972136</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O37" t="n">
-        <v>861.5759907321129</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P37" t="n">
-        <v>858.8270606966518</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q37" t="n">
-        <v>771.7946937757483</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
       <c r="W37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
       <c r="X37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Y37" t="n">
-        <v>727.0437002418422</v>
+        <v>151.763810304913</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.23151981464226</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="C38" t="n">
-        <v>17.23151981464226</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="D38" t="n">
-        <v>17.23151981464226</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="E38" t="n">
-        <v>17.23151981464226</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="F38" t="n">
-        <v>17.23151981464226</v>
+        <v>492.6233486874887</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23151981464226</v>
+        <v>275.0536540581672</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23151981464226</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="I38" t="n">
-        <v>17.23151981464226</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J38" t="n">
         <v>17.23151981464226</v>
@@ -7181,7 +7181,7 @@
         <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>416.8664630901746</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N38" t="n">
         <v>622.7209852974139</v>
@@ -7196,28 +7196,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>861.5759907321129</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="S38" t="n">
-        <v>861.5759907321129</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="T38" t="n">
-        <v>861.5759907321129</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="U38" t="n">
-        <v>644.0062961027915</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="V38" t="n">
-        <v>426.43660147347</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="W38" t="n">
-        <v>208.8669068441485</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="X38" t="n">
-        <v>208.8669068441485</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="Y38" t="n">
-        <v>208.8669068441485</v>
+        <v>710.1930433168102</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17.23151981464226</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="C39" t="n">
-        <v>17.23151981464226</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="D39" t="n">
-        <v>17.23151981464226</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="E39" t="n">
         <v>17.23151981464226</v>
@@ -7263,40 +7263,40 @@
         <v>569.0691952848756</v>
       </c>
       <c r="N39" t="n">
-        <v>678.932513118762</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="O39" t="n">
-        <v>678.932513118762</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P39" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q39" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>586.9891167356675</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T39" t="n">
-        <v>384.8025220944335</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="U39" t="n">
-        <v>167.2328274651121</v>
+        <v>268.4023569122264</v>
       </c>
       <c r="V39" t="n">
-        <v>17.23151981464226</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="W39" t="n">
-        <v>17.23151981464226</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="X39" t="n">
-        <v>17.23151981464226</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.23151981464226</v>
+        <v>50.83266228290498</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
         <v>727.0437002418422</v>
@@ -7360,22 +7360,22 @@
         <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="U40" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V40" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W40" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X40" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>448.2340696092722</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="C41" t="n">
-        <v>232.6540053493298</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="D41" t="n">
-        <v>232.6540053493298</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="E41" t="n">
-        <v>232.6540053493298</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="F41" t="n">
-        <v>232.6540053493298</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="G41" t="n">
-        <v>232.6540053493298</v>
+        <v>412.4453105812599</v>
       </c>
       <c r="H41" t="n">
-        <v>17.07394108938743</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="I41" t="n">
         <v>17.07394108938743</v>
@@ -7412,49 +7412,49 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>107.2817095536563</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L41" t="n">
-        <v>287.3575611383148</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
-        <v>498.6475821194843</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
-        <v>704.5021043267236</v>
+        <v>717.3093417733771</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6970544693717</v>
+        <v>764.0369991773207</v>
       </c>
       <c r="P41" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="R41" t="n">
-        <v>702.3141070540689</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="S41" t="n">
-        <v>663.8141338692145</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="T41" t="n">
-        <v>663.8141338692145</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="U41" t="n">
-        <v>663.8141338692145</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="V41" t="n">
-        <v>663.8141338692145</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="W41" t="n">
-        <v>663.8141338692145</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="X41" t="n">
-        <v>663.8141338692145</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="Y41" t="n">
-        <v>663.8141338692145</v>
+        <v>628.0253748412023</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>340.4613800317657</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="C42" t="n">
-        <v>166.0083507506387</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="D42" t="n">
-        <v>17.07394108938743</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="E42" t="n">
-        <v>17.07394108938743</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="F42" t="n">
-        <v>17.07394108938743</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07394108938743</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="H42" t="n">
-        <v>17.07394108938743</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="I42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
@@ -7497,10 +7497,10 @@
         <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>353.7215221283943</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="N42" t="n">
-        <v>565.0115431095638</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="O42" t="n">
         <v>601.6590183426915</v>
@@ -7512,28 +7512,28 @@
         <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>771.6215085516504</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>771.6215085516504</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="T42" t="n">
-        <v>771.6215085516504</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="U42" t="n">
-        <v>556.0414442917081</v>
+        <v>491.9231041650271</v>
       </c>
       <c r="V42" t="n">
-        <v>556.0414442917081</v>
+        <v>491.9231041650271</v>
       </c>
       <c r="W42" t="n">
-        <v>340.4613800317657</v>
+        <v>276.3430399050847</v>
       </c>
       <c r="X42" t="n">
-        <v>340.4613800317657</v>
+        <v>276.3430399050847</v>
       </c>
       <c r="Y42" t="n">
-        <v>340.4613800317657</v>
+        <v>276.3430399050847</v>
       </c>
     </row>
     <row r="43">
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>244.6749789590202</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
         <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>255.9665244219036</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>162.4265668883987</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
         <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>167.7543251166491</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8693,10 +8693,10 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>260.3515428840269</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>255.9665244219036</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>162.4265668883987</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
         <v>165.6020652806523</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>244.6749789590202</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
         <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P14" t="n">
         <v>256.8532869499004</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1395076939139</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>167.7543251166491</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O15" t="n">
-        <v>168.2165356390753</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>263.3564402303034</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M17" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>257.7082725202194</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
-        <v>166.1444050401903</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M18" t="n">
-        <v>168.6093106869682</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>170.1862697047606</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,10 +9483,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>233.2169876979182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9969,10 +9969,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,10 +10355,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>445.740230910301</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N32" t="n">
-        <v>339.6742254965835</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>357.5280316050465</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N33" t="n">
         <v>346.7357097663615</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>162.1846227582699</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,13 +10592,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>445.740230910301</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>283.1274823473447</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>348.8252438198737</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>346.7357097663615</v>
+        <v>141.3136102931414</v>
       </c>
       <c r="O36" t="n">
         <v>357.9902421274727</v>
@@ -10683,7 +10683,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,10 +10829,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>348.0675319949004</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>339.6742254965835</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10911,16 +10911,16 @@
         <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>242.3147604003903</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>152.5681426542525</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>311.2088090896966</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,10 +11072,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>277.2978653650641</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,13 +11145,13 @@
         <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>344.7659757006762</v>
+        <v>168.3593638339673</v>
       </c>
       <c r="O42" t="n">
-        <v>179.6138961950785</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1166891364521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>356.3100788776309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23075,16 +23075,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>305.1859059859041</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y8" t="n">
         <v>360.6176474614227</v>
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>143.9668311656365</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C9" t="n">
-        <v>147.0882077936849</v>
+        <v>150.1421465040849</v>
       </c>
       <c r="D9" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="10">
@@ -23273,13 +23273,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>328.8577389861488</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>238.7699996381505</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>140.9128924552365</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23346,16 +23346,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I12" t="n">
-        <v>67.5768716934421</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23394,7 +23394,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>180.0624045826735</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>384.3096932574806</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>238.7699996381505</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>394.5240408470375</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>237.0350578730948</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,7 +23811,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23820,10 +23820,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>113.0422229139242</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23859,13 +23859,13 @@
         <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,10 +23938,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>201.5678386764629</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>200.3555641679654</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U19" t="n">
         <v>258.7290040961748</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23984,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,7 +24014,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,16 +24026,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>248.139761950681</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24181,10 +24181,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,25 +24251,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,28 +24285,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>54.71802040920606</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>34.91942896372126</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,7 +24336,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,10 +24488,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>179.3857036041843</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24537,13 +24537,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>97.3338633290893</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,22 +24567,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.87656059868869</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,19 +24683,19 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E29" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>255.0550143366059</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>59.59762388653245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>153.3700237381743</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24923,10 +24923,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>166.5363723892335</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>191.4820480586832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,10 +24935,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24974,16 +24974,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>112.3582607871067</v>
+        <v>145.0644065529139</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>133.8469710343848</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y32" t="n">
-        <v>196.5189054968423</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25005,10 +25005,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>46.32946889200326</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,19 +25041,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>154.9595896010775</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>10.54738439794659</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25154,19 +25154,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>149.8788940879793</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>139.2890439376547</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>166.5363723892335</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>138.0332253109237</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>159.5219355582018</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>127.0955337899856</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,13 +25248,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>94.19958218112303</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>10.54738439794659</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>17.40658946639704</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25351,13 +25351,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>193.0148085042694</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,19 +25400,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>306.6560681396959</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25445,13 +25445,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>35.95165522480826</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>112.3582607871067</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>133.8469710343848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25476,7 +25476,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>124.3799494118209</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25527,7 +25527,7 @@
         <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
-        <v>84.29929257546016</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>169.3095780461377</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>151.8486281536646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>201.8784738977921</v>
       </c>
       <c r="H41" t="n">
         <v>126.0505384984242</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>32.48249739079506</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>170.9050961332395</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>172.8136750387107</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25725,10 +25725,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>18.90304369409913</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>12.5171184636319</v>
+        <v>39.46834238351153</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350035.0587549795</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350035.0587549793</v>
+        <v>350035.0587549795</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350035.0587549793</v>
+        <v>350035.0587549795</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351669.2246312143</v>
+        <v>351669.2246312142</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506790.0512205641</v>
+        <v>506790.0512205642</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506790.0512205641</v>
+        <v>506790.0512205642</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506790.0512205641</v>
+        <v>506790.0512205642</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488291.6158105898</v>
+        <v>488291.61581059</v>
       </c>
     </row>
     <row r="13">
@@ -26317,43 +26317,43 @@
         <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
-        <v>51644.51686548872</v>
+        <v>51644.51686548873</v>
       </c>
       <c r="E2" t="n">
         <v>51644.51686548872</v>
       </c>
       <c r="F2" t="n">
-        <v>51644.51686548873</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="G2" t="n">
-        <v>51885.62330624471</v>
+        <v>51885.62330624469</v>
       </c>
       <c r="H2" t="n">
-        <v>74772.30263909957</v>
+        <v>74772.30263909958</v>
       </c>
       <c r="I2" t="n">
+        <v>74772.30263909958</v>
+      </c>
+      <c r="J2" t="n">
         <v>74772.30263909959</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>74772.30263909958</v>
-      </c>
-      <c r="K2" t="n">
-        <v>74772.30263909957</v>
       </c>
       <c r="L2" t="n">
         <v>72043.0252835296</v>
       </c>
       <c r="M2" t="n">
-        <v>72043.02528352961</v>
+        <v>72043.0252835296</v>
       </c>
       <c r="N2" t="n">
-        <v>72043.02528352961</v>
+        <v>72043.0252835296</v>
       </c>
       <c r="O2" t="n">
-        <v>71833.1935317696</v>
+        <v>71833.19353176963</v>
       </c>
       <c r="P2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.4692517857578</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>262.4692517857578</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>302.7659019667079</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="E4" t="n">
-        <v>302.7659019667079</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="F4" t="n">
-        <v>302.7659019667079</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="G4" t="n">
-        <v>305.7405600937579</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>554.43312684536</v>
+        <v>160.9678794298453</v>
       </c>
       <c r="M4" t="n">
-        <v>554.43312684536</v>
+        <v>160.9678794298453</v>
       </c>
       <c r="N4" t="n">
-        <v>554.43312684536</v>
+        <v>160.9678794298453</v>
       </c>
       <c r="O4" t="n">
-        <v>551.8443211555209</v>
+        <v>159.5405981880675</v>
       </c>
       <c r="P4" t="n">
-        <v>262.4692517857578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14488.26323736513</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>14488.26323736513</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>8198.00620510029</v>
+        <v>8478.555432738955</v>
       </c>
       <c r="E6" t="n">
-        <v>49784.03725888846</v>
+        <v>50064.58648652712</v>
       </c>
       <c r="F6" t="n">
-        <v>49784.03725888847</v>
+        <v>50064.58648652712</v>
       </c>
       <c r="G6" t="n">
-        <v>49362.53464893037</v>
+        <v>49644.41852217519</v>
       </c>
       <c r="H6" t="n">
-        <v>1946.741062858964</v>
+        <v>2355.314235302259</v>
       </c>
       <c r="I6" t="n">
-        <v>59530.52820519067</v>
+        <v>59939.10137763394</v>
       </c>
       <c r="J6" t="n">
-        <v>59530.52820519065</v>
+        <v>59939.10137763395</v>
       </c>
       <c r="K6" t="n">
-        <v>59530.52820519064</v>
+        <v>59939.10137763394</v>
       </c>
       <c r="L6" t="n">
-        <v>58392.63709755613</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="M6" t="n">
-        <v>58392.63709755614</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="N6" t="n">
-        <v>58392.63709755614</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="O6" t="n">
-        <v>58305.15398267963</v>
+        <v>58697.45770564712</v>
       </c>
       <c r="P6" t="n">
-        <v>48115.86323736513</v>
+        <v>48378.33248915087</v>
       </c>
     </row>
   </sheetData>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M11" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="M11" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="L12" t="n">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="M12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>25.62029119463083</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P14" t="n">
         <v>25.62029119463083</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O15" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="P15" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N17" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>26.47527676494983</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L18" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M18" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36203,10 +36203,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>91.0829537758999</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N24" t="n">
         <v>55.51629994036225</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36689,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>215.3939976830282</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N32" t="n">
-        <v>110.2611618999926</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>215.3939976830282</v>
+        <v>40.87753466722953</v>
       </c>
       <c r="N33" t="n">
         <v>215.3939976830282</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.20284867224837</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>215.3939976830282</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>53.02927092565796</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>206.6912098978554</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>215.3939976830282</v>
+        <v>9.971898209808115</v>
       </c>
       <c r="O36" t="n">
         <v>215.3939976830282</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>117.7212987676277</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>110.2611618999926</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37631,16 +37631,16 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>110.973048317057</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>9.971898209808115</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>91.118958044716</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,10 +37792,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>47.19965394337734</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
-        <v>213.4242636173429</v>
+        <v>37.01765175063403</v>
       </c>
       <c r="O42" t="n">
-        <v>37.01765175063403</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
